--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.43</v>
+        <v>-20.485</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.488</v>
+        <v>-19.657</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.694</v>
+        <v>-12.748</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.67</v>
+        <v>-13.173</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.704</v>
+        <v>-21.861</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.794</v>
+        <v>-8.597999999999999</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.972</v>
+        <v>-7.855</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.23</v>
+        <v>-12.132</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.076</v>
+        <v>-12.867</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.028</v>
+        <v>-12.141</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.856</v>
+        <v>-21.928</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.652</v>
+        <v>-21.246</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.694</v>
+        <v>-21.893</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.506</v>
+        <v>-11.808</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.606</v>
+        <v>-7.764</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-19.935</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.474</v>
+        <v>-12.759</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.53</v>
+        <v>-13.03</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.43</v>
+        <v>-8.372</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.968</v>
+        <v>-13.018</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.097</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.324</v>
+        <v>-10.726</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.84</v>
+        <v>-21.94</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.896</v>
+        <v>-22.179</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.926</v>
+        <v>-21.738</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.544</v>
+        <v>-10.916</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.196</v>
+        <v>-11.283</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.048</v>
+        <v>-11.871</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.328</v>
+        <v>-14.098</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.34</v>
+        <v>-11.035</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.209999999999999</v>
+        <v>-7.854000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.06</v>
+        <v>-12.592</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.540000000000001</v>
+        <v>-8.561</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.754</v>
+        <v>-22.067</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
